--- a/Без имени 1.xlsx
+++ b/Без имени 1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">Первый</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t xml:space="preserve">Третий</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ленка </t>
+  </si>
+  <si>
+    <t xml:space="preserve">кошка</t>
   </si>
 </sst>
 </file>
@@ -43,6 +52,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -102,8 +112,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -127,68 +141,68 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>6</v>
       </c>
     </row>

--- a/Без имени 1.xlsx
+++ b/Без имени 1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">Первый</t>
   </si>
@@ -31,7 +31,13 @@
     <t xml:space="preserve">Третий</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t xml:space="preserve">Первое письмо</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Второе письмо</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Третье письмо</t>
   </si>
   <si>
     <t xml:space="preserve">Ленка </t>
@@ -138,13 +144,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -158,8 +164,8 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>2</v>
@@ -169,8 +175,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>3</v>
@@ -178,7 +184,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>4</v>
@@ -186,7 +192,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>4</v>
@@ -197,13 +203,28 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Без имени 1.xlsx
+++ b/Без имени 1.xlsx
@@ -20,40 +20,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t xml:space="preserve">Первый</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Второй</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Третий</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Первое письмо</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Второе письмо</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Третье письмо</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ленка </t>
-  </si>
-  <si>
-    <t xml:space="preserve">кошка</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+  <si>
+    <t xml:space="preserve">Кому</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тема</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Текст</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avdivo@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Приветствие</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Привет получи первое письмо</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Привет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Привет получи второе письмо</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -74,6 +75,19 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -118,12 +132,32 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -144,13 +178,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="A2:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.95"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -164,70 +201,53 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="n">
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>3</v>
-      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>4</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>5</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>3</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10" s="6"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="avdivo@mail.ru"/>
+    <hyperlink ref="A3" r:id="rId2" display="avdivo@mail.ru"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
